--- a/biology/Zoologie/Chloreuptychia_tolumnia/Chloreuptychia_tolumnia.xlsx
+++ b/biology/Zoologie/Chloreuptychia_tolumnia/Chloreuptychia_tolumnia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chloreuptychia tolumnia est une espèce de papillons de la famille des Nymphalidae et de la sous-famille des Satyrinae et du genre Chloreuptychia.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chloreuptychia tolumnia a été décrit par Pieter Cramer en 1777 sous le nom de Papilio tolumnia[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chloreuptychia tolumnia a été décrit par Pieter Cramer en 1777 sous le nom de Papilio tolumnia.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chloreuptychia tolumnia est un papillon au dessus marron plus ou moins bleuté dont la moitié anale de l'aile postérieure est bleu foncé.
-Le revers est ocre beige bleuté  avec deux bandes marron, discale et postdiscale, un ocelle noir cerné de jaune et pupillé à l'apex des ailes antérieures, une plage jaune orangé dans l'aire postdiscale des ailes antérieures et deux ocelles cernés de jaune et pupillés aux ailes postérieures, un gros proche de l'apex et un proche de l'angle anal[2].
+Le revers est ocre beige bleuté  avec deux bandes marron, discale et postdiscale, un ocelle noir cerné de jaune et pupillé à l'apex des ailes antérieures, une plage jaune orangé dans l'aire postdiscale des ailes antérieures et deux ocelles cernés de jaune et pupillés aux ailes postérieures, un gros proche de l'apex et un proche de l'angle anal.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chloreuptychia tolumnia vole toute l'année[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chloreuptychia tolumnia vole toute l'année.
 </t>
         </is>
       </c>
@@ -605,13 +623,85 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chloreuptychia tolumnia est présent au Pérou, au Brésil, au Surinam et en Guyane[1],[2].
-Biotope
-Chloreuptychia tolumnia réside en sous-bois[2].
-Protection
-Pas de statut de protection particulier
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chloreuptychia tolumnia est présent au Pérou, au Brésil, au Surinam et en Guyane,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chloreuptychia_tolumnia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chloreuptychia_tolumnia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chloreuptychia tolumnia réside en sous-bois.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chloreuptychia_tolumnia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chloreuptychia_tolumnia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier
 Sur les autres projets Wikimedia :
 Chloreuptychia tolumnia, sur Wikimedia CommonsChloreuptychia tolumnia, sur Wikispecies
 </t>
